--- a/templates/ведомость_курсанты_СПТП.xlsx
+++ b/templates/ведомость_курсанты_СПТП.xlsx
@@ -393,6 +393,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,18 +426,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:Q961"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,28 +733,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -767,70 +767,70 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:17" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:17" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-    </row>
-    <row r="7" spans="1:17" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -843,42 +843,42 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="31"/>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="21"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -957,16 +957,16 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -10415,6 +10415,7 @@
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:H7"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
